--- a/commerce_estate/NF_Spb/data/Sales.xlsx
+++ b/commerce_estate/NF_Spb/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:BB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>offer_count</t>
+          <t>offer_sale_cnt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -537,150 +537,165 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>scrape_date</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Предложений в аренду</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>offer_rent_cnt</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Эксклюзивный объект</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Класс</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Лифты</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Электроснабжение</t>
+          <t>exclusive</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Электричество</t>
+          <t>class</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Планировка</t>
+          <t>elevator</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>В стоимость включено</t>
+          <t>electricity_on</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>electricity</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>layout</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>price_includes</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>type_building</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>stage_construction</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>area_sale</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>showcases</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>entry_group</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>height</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>electricity_intensity</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Площадь здания</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Свободная площадь</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Количество доступных блоков в аренду</t>
-        </is>
-      </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Дополнительные характеристики</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Операционные расходы</t>
+          <t>parking_coef</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Шаг колонн</t>
+          <t>column</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Парковочный коэффициент</t>
+          <t>area_building</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Тип аренды</t>
+          <t>free_area</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Свободное кол-во рабочих мест</t>
+          <t>blocks_cnt</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>addit_char</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>type_rent</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>workers_cnt</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>area_sale3</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>income</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Дата закрытия</t>
         </is>

--- a/commerce_estate/NF_Spb/data/Sales.xlsx
+++ b/commerce_estate/NF_Spb/data/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB1"/>
+  <dimension ref="A1:BI46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,212 +494,7624 @@
           <t>decoration</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>floors</t>
+        </is>
+      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>floors</t>
+          <t>total_area</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>total_area</t>
+          <t>offer_sale_cnt</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>offer_sale_cnt</t>
+          <t>Площадь предложений</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Площадь предложений</t>
+          <t>description</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>total_price</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>total_price</t>
+          <t>price_meter</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>price_meter</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>image</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>scrape_date</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>scrape_date</t>
+          <t>offer_rent_cnt</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>offer_rent_cnt</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>exclusive</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>exclusive</t>
+          <t>class</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>elevator</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>elevator</t>
+          <t>electricity_on</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>electricity_on</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>layout</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>layout</t>
+          <t>price_includes</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>price_includes</t>
+          <t>type_building</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>type_building</t>
+          <t>stage_construction</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>stage_construction</t>
+          <t>area_sale</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>area_sale</t>
+          <t>showcases</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>showcases</t>
+          <t>entry_group</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>entry_group</t>
+          <t>height</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>electricity_intensity</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>electricity_intensity</t>
+          <t>city</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>expenses</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>parking_coef</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>parking_coef</t>
+          <t>column</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>column</t>
+          <t>area_building</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>area_building</t>
+          <t>free_area</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>free_area</t>
+          <t>blocks_cnt</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>blocks_cnt</t>
+          <t>addit_char</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>addit_char</t>
+          <t>type_rent</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>type_rent</t>
+          <t>workers_cnt</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>workers_cnt</t>
+          <t>area_sale3</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>area_sale3</t>
+          <t>income</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>Дата закрытия</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Дата закрытия</t>
-        </is>
-      </c>
+          <t>Unnamed: 53</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 54</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Ссылка</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 56</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 57</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 56.1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 57.1</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 58</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ID: ol27256</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gelsingforsskij-ol27256</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Сдается офис 869 м², 9 этаж - Гельсингфорсский</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Выборгский</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Выборгская</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Гельсингфорсская ул., д. 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>869</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>11 979 м²</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>869 - 1 785 м2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Аренда офиса в БЦ Гельсингфорсский класса В+ в Выборгском районе Санкт-Петербурга на Гельсингфорсской ул. д.2.  Великолепные панорамные виды на р. Большая Невка и архитектурные памятники.Бизнес-центр расположен у метро «Выборгская» - 10 минут пешком, так же рядом метро «Лесная» 16 минут пешком и метро «Петроградская»</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>22104</v>
+      </c>
+      <c r="S2" t="n">
+        <v>133391.5</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/8E765B36-55FF-E911-B80A-0050568C58C5/nf_wm/426D69D3-1A01-ED11-B839-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>59.973847</v>
+      </c>
+      <c r="W2" t="n">
+        <v>30.333745</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ID: ol44724</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol44724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Аренда офиса 200 м², 6 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26166.66666666667</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/1D5AB982-0025-EC11-B82C-0050568C58C5/nf_wm/078F10BF-F06C-EE11-929A-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>59.876174</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30.306725</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ID: ol47362</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol47362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Сдается офис 419 м², 15 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>419</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>16</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S4" t="n">
+        <v>54819.16666666666</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/43D9C846-7FD4-ED11-B868-0050568CD600/nf_wm/DF65B361-7FD4-ED11-B868-0050568CD600.jpg</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>59.876049</v>
+      </c>
+      <c r="W4" t="n">
+        <v>30.30806</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ID: ol44726</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol44726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Аренда офиса 841 м², 13 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>841</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S5" t="n">
+        <v>110030.8333333333</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/715E16C8-0025-EC11-B82C-0050568C58C5/nf_wm/8E87FB6D-85D7-ED11-B868-0050568CD600.jpg</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>59.876174</v>
+      </c>
+      <c r="W5" t="n">
+        <v>30.306725</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ID: ol29963</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/grenaderskij-ol29963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Сдается офис 323 м², 3 этаж - Гренадерский</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Выборгский</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Выборгская</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Выборгская наб, д. 47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>323</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8 000 м²</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>324 м2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/597B3FBA-58FF-E911-B80A-0050568C58C5/nf_wm/45330163-385D-EE11-9296-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>59.973277</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30.334061</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>не включен</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>оплачиваются по факту</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ID: ol27256</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gelsingforsskij-ol27256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Сдается офис 869 м², 9 этаж - Гельсингфорсский</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Выборгский</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Выборгская</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Гельсингфорсская ул., д. 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>869</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11 979 м²</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>869 - 1 785 м2</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Аренда офиса в БЦ Гельсингфорсский класса В+ в Выборгском районе Санкт-Петербурга на Гельсингфорсской ул. д.2.  Великолепные панорамные виды на р. Большая Невка и архитектурные памятники.Бизнес-центр расположен у метро «Выборгская» - 10 минут пешком, так же рядом метро «Лесная» 16 минут пешком и метро «Петроградская»</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>22104</v>
+      </c>
+      <c r="S7" t="n">
+        <v>133391.5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/8E765B36-55FF-E911-B80A-0050568C58C5/nf_wm/426D69D3-1A01-ED11-B839-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>59.973847</v>
+      </c>
+      <c r="W7" t="n">
+        <v>30.333745</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ID: ol29963</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/grenaderskij-ol29963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Сдается офис 323 м², 3 этаж - Гренадерский</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Выборгский</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Выборгская</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Выборгская наб, д. 47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>323</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>8 000 м²</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>324 м2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/597B3FBA-58FF-E911-B80A-0050568C58C5/nf_wm/45330163-385D-EE11-9296-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>59.973277</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.334061</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>не включен</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>оплачиваются по факту</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ID: ol44724</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol44724</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Аренда офиса 200 м², 6 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>200</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S9" t="n">
+        <v>26166.66666666667</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/1D5AB982-0025-EC11-B82C-0050568C58C5/nf_wm/078F10BF-F06C-EE11-929A-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>59.876174</v>
+      </c>
+      <c r="W9" t="n">
+        <v>30.306725</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ID: ol44726</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol44726</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Аренда офиса 841 м², 13 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>841</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S10" t="n">
+        <v>110030.8333333333</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/715E16C8-0025-EC11-B82C-0050568C58C5/nf_wm/8E87FB6D-85D7-ED11-B868-0050568CD600.jpg</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>59.876174</v>
+      </c>
+      <c r="W10" t="n">
+        <v>30.306725</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ID: ol47362</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/elkus-ol47362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Сдается офис 419 м², 15 этаж - Элкус</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Электросила</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Благодатная ул., д. 10а</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>419</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>16</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>29 360 м²</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>200 - 1 460 м2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в бизнес-центре «Элкус 2» класса В+, в Московском районе Санкт-Петербурга, по адресу ул. Благодатная, д. 10А«Элкус 2» - 16-этажный бизнес-центр, спроектирован в современном стиле, с панорамным остеклением и большими окнами. БЦ расположен в деловом центре Санкт-Петербурга - Московском районе. Ближайшая станция метро «Электросила», расположена в 900 метрах. В шаговой доступности Московский проспект, Кубинская улица и Западный скоростной диаметр.</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>18840</v>
+      </c>
+      <c r="S11" t="n">
+        <v>54819.16666666666</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/43D9C846-7FD4-ED11-B868-0050568CD600/nf_wm/DF65B361-7FD4-ED11-B868-0050568CD600.jpg</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>59.876049</v>
+      </c>
+      <c r="W11" t="n">
+        <v>30.30806</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1 000 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ID: r125774</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/retail/sadovaya-ul-d-60-r125774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Садовая ул., д. 60, торговая площадь 313.0 м² - аренда</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>м. Садовая</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Садовая ул., д. 60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>313</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>С отделкой</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>313 м²</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду помещение в Адмиралтейском районе на Садовой улице, в пешей доступности от станций метро «Спасская», «Сенная площадь», «Садовая».Тип здания: жилоеЭтаж: 1 этаж (4-этажного здания)Площадь: 313 кв. мМощность: по запросуВход: отдельный с улицыБольшие витринные окна</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>635000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2028.75</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>59.921574</v>
+      </c>
+      <c r="W12" t="n">
+        <v>30.304433</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Жилое здание</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Построен</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Отдельный вход</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г.</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>313.00 м²</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ID: ol45877</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/8-etazh-239-7-m-ol45877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Аренда офиса 686 м², 8 этаж - Ренессанс Холл</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Достоевская, Владимирская</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Владимирский пр-кт, д. 23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>686</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>11 716 м²</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>653 - 1 339 м2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Бизнес-центр класса А «Renaissance Hall» расположен в Центральном районе Санкт-Петербурга по адресу Владимирский проспект, д. 23.Станции метро «Достоевская» и «Владимирская» - 1 мин. пешей доступности.Удобный подъезд к комплексу обеспечивает близость таких магистралей как Владимирский проспект, Загородный проспект, Лиговский проспект, улица Марата, набережная реки Фонтанки.</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/59A11E7C-84B5-EC11-B834-0050568C58C5/nf_wm/C96B7867-3A77-EE11-929A-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>59.928181</v>
+      </c>
+      <c r="W13" t="n">
+        <v>30.346788</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>1 350 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ID: ol27231</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/vivaldi-plaza-ol27231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Сдается офис 652 м², 6 этаж - Ренессанс Холл</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Достоевская, Владимирская</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Владимирский пр-кт, д. 23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>652</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>11 716 м²</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>653 - 1 339 м2</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Бизнес-центр класса А «Renaissance Hall» расположен в Центральном районе Санкт-Петербурга по адресу Владимирский проспект, д. 23.Станции метро «Достоевская» и «Владимирская» - 1 мин. пешей доступности.Удобный подъезд к комплексу обеспечивает близость таких магистралей как Владимирский проспект, Загородный проспект, Лиговский проспект, улица Марата, набережная реки Фонтанки.</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/E2E50BDD-51FF-E911-B80A-0050568C58C5/nf_wm/EBB1CD9E-83B5-EC11-B834-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>59.928033</v>
+      </c>
+      <c r="W14" t="n">
+        <v>30.345902</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>1 350 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ID: ol47441</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47441</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Сдается офис 456 м², 4 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>456</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>18000</v>
+      </c>
+      <c r="S15" t="n">
+        <v>57012.5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/F32C5BA8-0CDA-ED11-B868-0050568CD600/nf_wm/85547BC0-0CDA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W15" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ID: ol47430</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47430</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Сдается офис 670 м², 2-3 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>670</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="S16" t="n">
+        <v>83750</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/EF3DAB6B-DED9-ED11-B868-0050568CD600/nf_wm/D5C6BAD6-06DA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W16" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ID: ol47440</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47440</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Сдается офис 594 м², 4 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>594</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>20400</v>
+      </c>
+      <c r="S17" t="n">
+        <v>84192.41666666667</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/9B263B11-0CDA-ED11-B868-0050568CD600/nf_wm/353B8E3E-0CDA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W17" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ID: ol27231</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/vivaldi-plaza-ol27231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Сдается офис 652 м², 6 этаж - Ренессанс Холл</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Достоевская, Владимирская</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Владимирский пр-кт, д. 23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>652</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11 716 м²</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>653 - 1 339 м2</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Бизнес-центр класса А «Renaissance Hall» расположен в Центральном районе Санкт-Петербурга по адресу Владимирский проспект, д. 23.Станции метро «Достоевская» и «Владимирская» - 1 мин. пешей доступности.Удобный подъезд к комплексу обеспечивает близость таких магистралей как Владимирский проспект, Загородный проспект, Лиговский проспект, улица Марата, набережная реки Фонтанки.</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/E2E50BDD-51FF-E911-B80A-0050568C58C5/nf_wm/EBB1CD9E-83B5-EC11-B834-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>59.928033</v>
+      </c>
+      <c r="W18" t="n">
+        <v>30.345902</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>1 350 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ID: ol45877</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/8-etazh-239-7-m-ol45877</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Аренда офиса 686 м², 8 этаж - Ренессанс Холл</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Достоевская, Владимирская</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Владимирский пр-кт, д. 23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>686</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>11 716 м²</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>653 - 1 339 м2</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Бизнес-центр класса А «Renaissance Hall» расположен в Центральном районе Санкт-Петербурга по адресу Владимирский проспект, д. 23.Станции метро «Достоевская» и «Владимирская» - 1 мин. пешей доступности.Удобный подъезд к комплексу обеспечивает близость таких магистралей как Владимирский проспект, Загородный проспект, Лиговский проспект, улица Марата, набережная реки Фонтанки.</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/59A11E7C-84B5-EC11-B834-0050568C58C5/nf_wm/C96B7867-3A77-EE11-929A-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>59.928181</v>
+      </c>
+      <c r="W19" t="n">
+        <v>30.346788</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>1 350 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Ресторан
+Фитнес-центр</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ID: ol47430</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47430</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Сдается офис 670 м², 2-3 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>670</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>83750</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/EF3DAB6B-DED9-ED11-B868-0050568CD600/nf_wm/D5C6BAD6-06DA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W20" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ID: ol47440</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47440</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Сдается офис 594 м², 4 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>594</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>20400</v>
+      </c>
+      <c r="S21" t="n">
+        <v>84192.41666666667</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/9B263B11-0CDA-ED11-B868-0050568CD600/nf_wm/353B8E3E-0CDA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W21" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ID: ol47441</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/derzhavinskij-5-ol47441</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Сдается офис 456 м², 4 этаж - Державинский 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Адмиралтейский</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Технологический институт</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Державинский пер, д. 5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>456</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1860</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>15 875 м²</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>424 - 2 144 м2</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Бизнес-центр «Державинский 5» класса B+ находящийся в Адмиралтейском районе по адресу Державинский пер. д.5.Станция метро «Технологический институт» в 400 метрах (5-7 минут пешком)Характеристики офисных помещений:Помещения с отделкойОкна с видом на Польский садХарактеристики БЦ:</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>18000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>57012.5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/F32C5BA8-0CDA-ED11-B868-0050568CD600/nf_wm/85547BC0-0CDA-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>59.918076</v>
+      </c>
+      <c r="W22" t="n">
+        <v>30.312706</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>17/11/2023</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ID: r130604</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/retail/bolshaya-moskovskaya-ul-d-8-r130604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Большая Московская ул., д. 8, торговая площадь 160.0 м² - аренда</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>м. Владимирская, м. Достоевская</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Большая Московская ул., д. 8/2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>160</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>С отделкой</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>160 м²</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду коммерческое помещение в 5 минутах от метро Владимирская на Большой Московской ул., д. 8Хороший пешеходный и автомобильный трафик, но в тоже время некоторая камерность Большой Московской улицы.Рядом бизнес-центры, отели и университеты, что обеспечит поток посетителей под множество разных бизнесов.</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>400000</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>59.926502</v>
+      </c>
+      <c r="W23" t="n">
+        <v>30.347902</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Жилое здание</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Построен</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Отдельный вход</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г.</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>160.00 м²</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>28/11/2023</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ID: ol44680</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44680</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Аренда офиса 465 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>465</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>1676880</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/CF6B81DD-2A20-EC11-B82C-0050568C58C5/nf_wm/D4834BE3-A361-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W24" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ID: ol38308</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol38308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Офис 486 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>486</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1749600</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/08BA04A8-5F18-EA11-B80A-0050568C58C5/nf_wm/B8805D44-A361-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>59.936864</v>
+      </c>
+      <c r="W25" t="n">
+        <v>30.311775</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ID: ol45976</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol45976</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Аренда офиса 510 м², 4 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>510</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>1838160</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/DFCE5BAC-F9BB-EC11-B835-0050568C58C5/nf_wm/B01E5127-FABB-EC11-B835-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W26" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ID: ol44829</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44829</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Аренда офиса 951 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>951</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>3426480</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/1EAAFC05-5D2B-EC11-B82E-0050568C58C5/nf_wm/AB830ED5-A261-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W27" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ID: ol44716</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44716</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Аренда офиса 1 279 м², 1-3 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1279</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>5883400</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4600</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/2EE09A82-F724-EC11-B82C-0050568C58C5/nf_wm/EA300CDD-94E2-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W28" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ID: ol38308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol38308</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Офис 486 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>486</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1749600</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/08BA04A8-5F18-EA11-B80A-0050568C58C5/nf_wm/B8805D44-A361-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>59.936864</v>
+      </c>
+      <c r="W29" t="n">
+        <v>30.311775</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ID: ol44680</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44680</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Аренда офиса 465 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>465</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>1676880</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/CF6B81DD-2A20-EC11-B82C-0050568C58C5/nf_wm/D4834BE3-A361-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W30" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ID: ol44716</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44716</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Аренда офиса 1 279 м², 1-3 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1279</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1-3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>5883400</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4600</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/2EE09A82-F724-EC11-B82C-0050568C58C5/nf_wm/EA300CDD-94E2-ED11-B868-0050568CD600.png</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W31" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ID: ol44829</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol44829</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Аренда офиса 951 м², 6 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>951</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>3426480</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/1EAAFC05-5D2B-EC11-B82E-0050568C58C5/nf_wm/AB830ED5-A261-ED11-B84A-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W32" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ID: ol45976</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/nevskij-pr-d-1-ol45976</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Аренда офиса 510 м², 4 этаж - Невский пр., д. 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Центральный</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Адмиралтейская</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Невский пр-кт, д. 1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>510</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>11 200 м²</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>269 - 4 981 м2</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Предлагаются в аренду офисы в БЦ «Невский 1» класса А+, в Центральном районе, по адресу: Невский пр-т, д. 1 БЦ «Невский 1» - уникальная доминанта среди дорогих объектов на главной улице города, благодаря исключительным техническим и видовым характеристикам. БЦ «Невский 1» расположен в «Золотом треугольнике» - самой дорогой и привлекательной части города. В локации отличная транспортная доступность: 2 минуты пешком до станции метро «Адмиралтейская», 10 минут до станций метро «Невский проспект», «Гостиный двор», 15 минут на автомобиле до Московского вокзала, 40 минут до аэропорта Пулково.</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1838160</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/DFCE5BAC-F9BB-EC11-B835-0050568C58C5/nf_wm/B01E5127-FABB-EC11-B835-0050568C58C5.jpg</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>59.936846</v>
+      </c>
+      <c r="W33" t="n">
+        <v>30.312185</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Ресторан</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>1/12/2023</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>Бизнес-центр</t>
+        </is>
+      </c>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ID: r132422</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/retail/konstitutsii-pl-d-7-r132422</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Конституции пл., д. 7, торговая площадь 2676.0 м² - аренда</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>м. Московская</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Конституции пл, д. 7, литера А</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2676</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>С отделкой</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2 676 м²</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду торговое помещение street retail  в бизнес-центре Лидер по адресу : Санкт-Петербург ,Площадь Конституции, д 7.
+КОММЕРЧЕСКИЕ УСЛОВИЯ
+Арендная ставка:
+1120₽/кв.м./месяц, площадь 2676 м2, 2 997 344₽/месяц
+1 440 ₽/кв.м./месяц, площадь от 200 кв.м. от 288 000 ₽/месяц
+НДС включен в стоимость
+КУ не включены в стоимость
+Тип здания: БЦ
+Тип помещения: нежилое
+Общая площадь: 2676 кв.м.
+Возможно деление: от 200 кв.м.
+Высота потолков: 4 м.
+Планировка объекта —свободная с шагом колонн 6 м.
+Этаж: 1 этаж
+Мощность: 300кВт
+Вход: 5 входных групп
+С отделкой</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2997344</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1120.083333333333</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>59.850992</v>
+      </c>
+      <c r="W34" t="n">
+        <v>30.308268</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>БЦ</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Построен</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Отдельный вход</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>300 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г.</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>2 676.00 м²</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ID: r132446</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/retail/konstitutsii-pl-d-7-r132446</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Конституции пл., д. 7, торговая площадь 200.0 м² - аренда</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Московский</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>м. Московская</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Конституции пл, д. 7, литера А</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>200</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>С отделкой</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>200 м²</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду торговое помещение street retail  в бизнес-центре Лидер по адресу : Санкт-Петербург ,Площадь Конституции, д 7.КОММЕРЧЕСКИЕ УСЛОВИЯТип здания: БЦТип помещения: нежилоеОбщая площадь: 2676 кв.м.Высота потолков: 4 м.Планировка объекта —свободная с шагом колонн 6 м.</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>288000</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>59.850992</v>
+      </c>
+      <c r="W35" t="n">
+        <v>30.308268</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>БЦ</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Построен</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Отдельный вход</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г.</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>200.00 м²</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ID: ol46446</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Аренда офиса 168 м², 8 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>168</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>14</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>240618</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/12F61535-6D03-ED11-B83A-0050568C58C5/nf_wm/99A3EAF3-E11B-EE11-928E-005056BCE966.png</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W36" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>открытая</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ID: ol46319</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46319</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Аренда офиса 168 м², 9 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>168</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>14</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>241189</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/7335415D-12F2-EC11-B839-0050568C58C5/nf_wm/3EF2278C-E21B-EE11-928E-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W37" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ID: ol46445</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46445</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Аренда офиса 198 м², 4 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>198</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>14</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>283743</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/557F6F23-6B03-ED11-B83A-0050568C58C5/nf_wm/1CB34F88-EA1B-EE11-928E-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W38" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ID: ol47221</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol47221</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Сдается офис 219 м², 9 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>219</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>14</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>313446</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/D5721CEA-2FA6-ED11-B854-0050568CD600/nf_wm/97FF3ECC-F205-EE11-928D-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W39" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>открытая</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ID: ol46319</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46319</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Аренда офиса 168 м², 9 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>168</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>14</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>241189</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/7335415D-12F2-EC11-B839-0050568C58C5/nf_wm/3EF2278C-E21B-EE11-928E-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W40" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ID: ol46445</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46445</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Аренда офиса 198 м², 4 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>198</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>14</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>283743</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/557F6F23-6B03-ED11-B83A-0050568C58C5/nf_wm/1CB34F88-EA1B-EE11-928E-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W41" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ID: ol46446</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol46446</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Аренда офиса 168 м², 8 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>168</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>14</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>240618</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/12F61535-6D03-ED11-B83A-0050568C58C5/nf_wm/99A3EAF3-E11B-EE11-928E-005056BCE966.png</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W42" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>открытая</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ID: ol47221</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/gulliver-2-ol47221</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Сдается офис 219 м², 9 этаж - Гулливер-2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Приморский</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Старая Деревня</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Торфяная дор, д. 7, литера Ф</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>219</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2010</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>14</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>25 500 м²</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>169 - 756 м2</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>БЦ Гулливер-2 класса "В+"Расположение: Приморский р-н, Торфяная дорога, д. 7До станции метро "Старая деревня" 2 минуты пешкомГод постройки: 2010Объект- 14-этажное здание Помещение с отделкой, планировка смешанная и кабинетнаяТехническое оснащение:Приточно-вытяжная система вентиляции, мультизональная система кондиционирования, система пожаротушения</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>313446</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1428</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/D5721CEA-2FA6-ED11-B854-0050568CD600/nf_wm/97FF3ECC-F205-EE11-928D-005056BCE966.jpg</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
+        <v>59.990878</v>
+      </c>
+      <c r="W43" t="n">
+        <v>30.259975</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>открытая</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ID: r129612</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/retail/torgovoe-pomeshchenie-na-morskom-pr-d-28-r129612</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Торговое помещение на Морском пр., д. 28, торговая площадь 370.0 м² - аренда</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Петроградский</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>м. Крестовский Остров</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Морской пр-кт, д. 28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>370</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>370 м²</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Предлагается в аренду коммерческое помещение на Крестовском островеПомещение расположено на первом этаже шестиэтажного жилого здания, находящегося в Петроградском районе на Крестовском острове. Ближайшая станция метро "Крестовский Остров" - в 4 минутах ходьбы. Путь до второй ближайшей станции "Чкаловская" занимает 6 минут езды на транспорте. Транспортная доступность обеспечивается расположением объекта на Морском проспекте и близостью к Крестовскому проспекту. Расстояние до ЗСД — порядка 4 км, до Московского вокзала - 10 км.</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>750000</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2027</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>59.970564</v>
+      </c>
+      <c r="W44" t="n">
+        <v>30.261799</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>не применим</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Жилое здание</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Построен</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Отдельный вход</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>15 кВт/ч</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург г.</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>370.00 м²</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>16/12/2023</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ID: ol45349</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/tolstoj-skver-ol45349</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Аренда офиса 274 м², 9 этаж - Толстой Сквер</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Петроградский</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Петроградская</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Льва Толстого улица, 9</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>274</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>25 400 м²</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>217 - 492 м2</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>МФК «Толстой сквер» класса «А».Расположение: Петроградский р-н, Льва Толстого улица, д. 9.До метро «Петроградская» 5 минут пешком. До Аэропорта – 24 км, до ЗСД – 13 км;Описание:Общая площадь: 25 400 м2;Планировка: кабинетная и open space;Высококачественная отделка общих зон;</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/C03DE097-CB89-EC11-B830-0050568C58C5/nf_wm/BE61AF45-FB34-ED11-B83F-0050568C58C5.png</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
+        <v>59.964907</v>
+      </c>
+      <c r="W45" t="n">
+        <v>30.31575</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>Ресторан
+Салон красоты</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ID: ol45349</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://kf.expert/spb/office/pomeschenie/tolstoj-skver-ol45349</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Аренда офиса 274 м², 9 этаж - Толстой Сквер</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Петроградский</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Петроградская</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Льва Толстого улица, 9</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>274</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>25 400 м²</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>217 - 492 м2</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>МФК «Толстой сквер» класса «А».Расположение: Петроградский р-н, Льва Толстого улица, д. 9.До метро «Петроградская» 5 минут пешком. До Аэропорта – 24 км, до ЗСД – 13 км;Описание:Общая площадь: 25 400 м2;Планировка: кабинетная и open space;Высококачественная отделка общих зон;</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>+7 (812) 363-22-22</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://extpic5.kf.expert/images/C03DE097-CB89-EC11-B830-0050568C58C5/nf_wm/BE61AF45-FB34-ED11-B83F-0050568C58C5.png</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
+        <v>59.964907</v>
+      </c>
+      <c r="W46" t="n">
+        <v>30.31575</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>2_11_2023</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>включен</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>смешанная</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>Ресторан
+Салон красоты</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>включены в арендную плату</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>19/12/2023</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>Многофункциональный комплекс</t>
+        </is>
+      </c>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
